--- a/data/Lanco.xlsx
+++ b/data/Lanco.xlsx
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
